--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_20_22.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_20_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>945483.6090505904</v>
+        <v>905855.4795291754</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>12442786.77110234</v>
+        <v>12433754.73901463</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6542842.860770956</v>
+        <v>4171427.157673263</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9002665.832032444</v>
+        <v>10110215.29371708</v>
       </c>
     </row>
     <row r="11">
@@ -661,25 +661,25 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>104.1383913127193</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
-        <v>187.8257939385645</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>115.3066195468971</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -715,19 +715,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>213.2445435269807</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>213.2445435269807</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>213.2445435269807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -737,13 +737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>109.3170492634406</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
@@ -755,7 +755,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>100.3818381362696</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -785,28 +785,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>23.95454262003122</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>195.2176514895044</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>21.31864407087948</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -822,25 +822,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>25.28922729870057</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.9620113031242</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>153.0787110700107</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>124.5065992268343</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.6111386045213</v>
+        <v>15.07219909888208</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -864,10 +864,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>131.0272459073095</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S4" t="n">
-        <v>206.0844911090059</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -876,10 +876,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>176.65965983808</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,19 +904,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>70.30590399521381</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>94.01296546539861</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>135.6947852330895</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>209.0099940619508</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>66.97703855271381</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -989,10 +989,10 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>135.621850202431</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>95.60776595738771</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>179.8312402672117</v>
+        <v>190.2606141514371</v>
       </c>
       <c r="W6" t="n">
         <v>251.6949831609196</v>
@@ -1059,16 +1059,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>90.74767726001075</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.5475916130827</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>175.3044764307325</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1119,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.547702772954</v>
+        <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>179.4336257791589</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>216.209257536856</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1201,7 +1201,7 @@
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1232,7 +1232,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1302,16 +1302,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.3066000448042</v>
+        <v>50.98074812542836</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>104.7965952039006</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,13 +1338,13 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>93.45324246329919</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1353,13 +1353,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1375,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>232.043565357285</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1387,10 +1387,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H11" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1429,16 +1429,16 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
-        <v>201.6622187863195</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1530,25 +1530,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>83.10312859221557</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>17.25588147840214</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
         <v>219.5489492761692</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1612,22 +1612,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>74.81870721229906</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>129.9683811617064</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>203.9179701396201</v>
@@ -1672,10 +1672,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="15">
@@ -1764,13 +1764,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>42.86209348694693</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>31.73783249628717</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1782,10 +1782,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,28 +1812,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1843,16 +1843,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>117.0340619339638</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
         <v>406.8760457417114</v>
@@ -1861,10 +1861,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H17" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1894,19 +1894,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U17" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>332.2855371695808</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1943,7 +1943,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,10 +1970,10 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.142909873409792</v>
       </c>
       <c r="S18" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T18" t="n">
         <v>190.7165703189231</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>114.4746605491562</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>117.0859349823495</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,22 +2049,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
@@ -2083,10 +2083,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>267.3175824249696</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2095,13 +2095,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>259.745986536829</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2180,7 +2180,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,10 +2207,10 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S21" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T21" t="n">
         <v>190.7165703189231</v>
@@ -2247,7 +2247,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>52.07852635745854</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
@@ -2256,10 +2256,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>108.8314371278621</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2320,10 +2320,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>88.01624809068136</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2332,10 +2332,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>410.9217256534534</v>
+        <v>11.23245244213807</v>
       </c>
       <c r="H23" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -2368,19 +2368,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U23" t="n">
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
@@ -2444,7 +2444,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,7 +2484,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -2532,7 +2532,7 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U25" t="n">
-        <v>55.04428069320068</v>
+        <v>177.3744508986163</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>284.8749944270522</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>85.17289288835038</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,13 +2718,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -2763,19 +2763,19 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>6.380068175847704</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>134.350150093281</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2794,25 +2794,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>145.2219459239358</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H29" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2842,19 +2842,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>126.5388824951709</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>69.96969900783328</v>
       </c>
       <c r="W31" t="n">
-        <v>114.2656173771016</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3028,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C32" t="n">
         <v>365.2728917710076</v>
@@ -3040,13 +3040,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
-        <v>353.5163003507451</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H32" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3082,22 +3082,22 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
         <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>92.4209234259874</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T34" t="n">
-        <v>82.26790245020051</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>35.19569619650058</v>
       </c>
     </row>
     <row r="35">
@@ -3280,13 +3280,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3316,25 +3316,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>229.7965692041383</v>
       </c>
       <c r="W35" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>199.6710892234284</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3435,10 +3435,10 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>7.601081015447603</v>
       </c>
       <c r="T37" t="n">
         <v>219.5489492761692</v>
@@ -3489,7 +3489,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>164.9833439705337</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
         <v>218.5846533520948</v>
@@ -3514,16 +3514,16 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>85.17289288835124</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3568,7 +3568,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>157.2157096132858</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3660,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -3681,7 +3681,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>74.75769145492336</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,10 +3708,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274476</v>
       </c>
       <c r="T40" t="n">
         <v>219.5489492761692</v>
@@ -3745,19 +3745,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>300.4879207856013</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H41" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292595</v>
@@ -3796,13 +3796,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>230.2267521569527</v>
       </c>
       <c r="W41" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3897,28 +3897,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>106.5867442799591</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3954,19 +3954,19 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>267.2493845433992</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3988,16 +3988,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>263.3429757223591</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,19 +4030,19 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>57.92518451681089</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734089393</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,28 +4134,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>58.40943379163104</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>105.0076120744424</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4188,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>206.7825876625267</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="C2" t="n">
-        <v>206.7825876625267</v>
+        <v>788.4778634388466</v>
       </c>
       <c r="D2" t="n">
-        <v>206.7825876625267</v>
+        <v>683.2875691835745</v>
       </c>
       <c r="E2" t="n">
-        <v>206.7825876625267</v>
+        <v>416.9099126163965</v>
       </c>
       <c r="F2" t="n">
-        <v>206.7825876625267</v>
+        <v>150.5322560492186</v>
       </c>
       <c r="G2" t="n">
-        <v>206.7825876625267</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="H2" t="n">
-        <v>17.05956348215845</v>
+        <v>137.5684432757741</v>
       </c>
       <c r="I2" t="n">
-        <v>17.05956348215845</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>30.5697471065107</v>
+        <v>49.28269087917585</v>
       </c>
       <c r="K2" t="n">
-        <v>101.5565284515751</v>
+        <v>142.2640879052541</v>
       </c>
       <c r="L2" t="n">
-        <v>226.5236696486553</v>
+        <v>294.5174947515907</v>
       </c>
       <c r="M2" t="n">
-        <v>397.2431302647976</v>
+        <v>495.5981834030601</v>
       </c>
       <c r="N2" t="n">
-        <v>575.3388186142429</v>
+        <v>704.5463761991316</v>
       </c>
       <c r="O2" t="n">
-        <v>730.1742656760282</v>
+        <v>888.5149683358413</v>
       </c>
       <c r="P2" t="n">
-        <v>827.8217366396342</v>
+        <v>1011.026904601763</v>
       </c>
       <c r="Q2" t="n">
-        <v>852.9781741079227</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R2" t="n">
-        <v>852.9781741079227</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>852.9781741079227</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T2" t="n">
-        <v>852.9781741079227</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="U2" t="n">
-        <v>637.5796452927907</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="V2" t="n">
-        <v>637.5796452927907</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="W2" t="n">
-        <v>422.1811164776587</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="X2" t="n">
-        <v>422.1811164776587</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="Y2" t="n">
-        <v>206.7825876625267</v>
+        <v>1054.855520006025</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>441.8427985217787</v>
+        <v>131.5183722823837</v>
       </c>
       <c r="C3" t="n">
-        <v>267.3897692406517</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="D3" t="n">
-        <v>118.4553595794005</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="E3" t="n">
-        <v>118.4553595794005</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>118.4553595794005</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>118.4553595794005</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>17.05956348215845</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>17.05956348215845</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>17.05956348215845</v>
+        <v>117.4455628004799</v>
       </c>
       <c r="K3" t="n">
-        <v>109.3290061694342</v>
+        <v>192.1295835699341</v>
       </c>
       <c r="L3" t="n">
-        <v>235.9860749520332</v>
+        <v>338.8740072302309</v>
       </c>
       <c r="M3" t="n">
-        <v>403.145768365604</v>
+        <v>529.4746963267547</v>
       </c>
       <c r="N3" t="n">
-        <v>589.1383263803878</v>
+        <v>739.5286634293598</v>
       </c>
       <c r="O3" t="n">
-        <v>737.0653851695868</v>
+        <v>909.4672107560896</v>
       </c>
       <c r="P3" t="n">
-        <v>836.4568250845134</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
-        <v>852.9781741079227</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>828.7816664109214</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>828.7816664109214</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>631.592119451826</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>610.0581355418467</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="V3" t="n">
-        <v>610.0581355418467</v>
+        <v>801.367527981072</v>
       </c>
       <c r="W3" t="n">
-        <v>610.0581355418467</v>
+        <v>547.1301712528705</v>
       </c>
       <c r="X3" t="n">
-        <v>610.0581355418467</v>
+        <v>339.2786710473376</v>
       </c>
       <c r="Y3" t="n">
-        <v>610.0581355418467</v>
+        <v>131.5183722823837</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>512.4612680308364</v>
+        <v>481.2412344269841</v>
       </c>
       <c r="C4" t="n">
-        <v>512.4612680308364</v>
+        <v>481.2412344269841</v>
       </c>
       <c r="D4" t="n">
-        <v>512.4612680308364</v>
+        <v>331.1245950146483</v>
       </c>
       <c r="E4" t="n">
-        <v>512.4612680308364</v>
+        <v>183.2115014322552</v>
       </c>
       <c r="F4" t="n">
-        <v>486.9165939917449</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="G4" t="n">
-        <v>318.2680977259629</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="H4" t="n">
-        <v>163.6431370491844</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="I4" t="n">
-        <v>37.87889540591735</v>
+        <v>36.32155393434482</v>
       </c>
       <c r="J4" t="n">
-        <v>17.05956348215845</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
-        <v>113.3646722991124</v>
+        <v>126.4133765287944</v>
       </c>
       <c r="L4" t="n">
-        <v>292.1284894992939</v>
+        <v>316.7083726551007</v>
       </c>
       <c r="M4" t="n">
-        <v>490.9989932947162</v>
+        <v>527.7368878375333</v>
       </c>
       <c r="N4" t="n">
-        <v>690.5754174291684</v>
+        <v>739.1822330227044</v>
       </c>
       <c r="O4" t="n">
-        <v>732.4678813621425</v>
+        <v>918.469937207554</v>
       </c>
       <c r="P4" t="n">
-        <v>852.9781741079227</v>
+        <v>1048.360858816803</v>
       </c>
       <c r="Q4" t="n">
-        <v>852.9781741079227</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>720.6274206661959</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="S4" t="n">
-        <v>512.4612680308364</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="T4" t="n">
-        <v>512.4612680308364</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="U4" t="n">
-        <v>512.4612680308364</v>
+        <v>926.0629918407075</v>
       </c>
       <c r="V4" t="n">
-        <v>512.4612680308364</v>
+        <v>747.618890994162</v>
       </c>
       <c r="W4" t="n">
-        <v>512.4612680308364</v>
+        <v>481.2412344269841</v>
       </c>
       <c r="X4" t="n">
-        <v>512.4612680308364</v>
+        <v>481.2412344269841</v>
       </c>
       <c r="Y4" t="n">
-        <v>512.4612680308364</v>
+        <v>481.2412344269841</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>765.645295770216</v>
+        <v>1319.806061306788</v>
       </c>
       <c r="C5" t="n">
-        <v>396.6827788298042</v>
+        <v>950.8435443663761</v>
       </c>
       <c r="D5" t="n">
-        <v>38.41708022305377</v>
+        <v>592.5778457596257</v>
       </c>
       <c r="E5" t="n">
-        <v>38.41708022305377</v>
+        <v>206.7895931613814</v>
       </c>
       <c r="F5" t="n">
-        <v>38.41708022305377</v>
+        <v>199.844092412178</v>
       </c>
       <c r="G5" t="n">
-        <v>38.41708022305377</v>
+        <v>128.8280277705479</v>
       </c>
       <c r="H5" t="n">
-        <v>38.41708022305377</v>
+        <v>128.8280277705479</v>
       </c>
       <c r="I5" t="n">
-        <v>38.41708022305377</v>
+        <v>33.86543639135736</v>
       </c>
       <c r="J5" t="n">
-        <v>129.5560915420717</v>
+        <v>108.460446878028</v>
       </c>
       <c r="K5" t="n">
-        <v>316.888362403805</v>
+        <v>270.9975490818695</v>
       </c>
       <c r="L5" t="n">
-        <v>586.1923713182418</v>
+        <v>509.5409587373983</v>
       </c>
       <c r="M5" t="n">
-        <v>917.5144080069743</v>
+        <v>806.6359018176483</v>
       </c>
       <c r="N5" t="n">
-        <v>1258.811390014689</v>
+        <v>1113.15196005897</v>
       </c>
       <c r="O5" t="n">
-        <v>1567.753190834139</v>
+        <v>1389.251120836697</v>
       </c>
       <c r="P5" t="n">
-        <v>1796.92686935341</v>
+        <v>1590.394365921689</v>
       </c>
       <c r="Q5" t="n">
-        <v>1920.854011152688</v>
+        <v>1693.271819567868</v>
       </c>
       <c r="R5" t="n">
-        <v>1920.854011152688</v>
+        <v>1693.271819567868</v>
       </c>
       <c r="S5" t="n">
-        <v>1783.788571523305</v>
+        <v>1693.271819567868</v>
       </c>
       <c r="T5" t="n">
-        <v>1572.667365400122</v>
+        <v>1693.271819567868</v>
       </c>
       <c r="U5" t="n">
-        <v>1572.667365400122</v>
+        <v>1693.271819567868</v>
       </c>
       <c r="V5" t="n">
-        <v>1572.667365400122</v>
+        <v>1693.271819567868</v>
       </c>
       <c r="W5" t="n">
-        <v>1219.898710130008</v>
+        <v>1693.271819567868</v>
       </c>
       <c r="X5" t="n">
-        <v>1219.898710130008</v>
+        <v>1319.806061306788</v>
       </c>
       <c r="Y5" t="n">
-        <v>1152.245135834338</v>
+        <v>1319.806061306788</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>901.1418009923042</v>
+        <v>663.0248883123062</v>
       </c>
       <c r="C6" t="n">
-        <v>726.6887717111772</v>
+        <v>488.5718590311791</v>
       </c>
       <c r="D6" t="n">
-        <v>577.7543620499259</v>
+        <v>339.6374493699279</v>
       </c>
       <c r="E6" t="n">
-        <v>418.5169070444705</v>
+        <v>180.3999943644724</v>
       </c>
       <c r="F6" t="n">
-        <v>271.9823490713555</v>
+        <v>33.86543639135736</v>
       </c>
       <c r="G6" t="n">
-        <v>134.9905811901121</v>
+        <v>33.86543639135736</v>
       </c>
       <c r="H6" t="n">
-        <v>38.41708022305377</v>
+        <v>33.86543639135736</v>
       </c>
       <c r="I6" t="n">
-        <v>38.41708022305377</v>
+        <v>33.86543639135736</v>
       </c>
       <c r="J6" t="n">
-        <v>73.88100404293512</v>
+        <v>124.0742315427338</v>
       </c>
       <c r="K6" t="n">
-        <v>474.4699078291682</v>
+        <v>246.0013607545392</v>
       </c>
       <c r="L6" t="n">
-        <v>773.565865722818</v>
+        <v>456.2699738772744</v>
       </c>
       <c r="M6" t="n">
-        <v>1064.722002495275</v>
+        <v>721.0003958340158</v>
       </c>
       <c r="N6" t="n">
-        <v>1377.992820761722</v>
+        <v>1007.146089245744</v>
       </c>
       <c r="O6" t="n">
-        <v>1642.354621854703</v>
+        <v>1246.693700419942</v>
       </c>
       <c r="P6" t="n">
-        <v>1835.195207536622</v>
+        <v>1419.618711034411</v>
       </c>
       <c r="Q6" t="n">
-        <v>1914.184835727714</v>
+        <v>1693.271819567868</v>
       </c>
       <c r="R6" t="n">
-        <v>1920.854011152688</v>
+        <v>1693.271819567868</v>
       </c>
       <c r="S6" t="n">
-        <v>1920.854011152688</v>
+        <v>1693.271819567868</v>
       </c>
       <c r="T6" t="n">
-        <v>1920.854011152688</v>
+        <v>1693.271819567868</v>
       </c>
       <c r="U6" t="n">
-        <v>1920.854011152688</v>
+        <v>1693.271819567868</v>
       </c>
       <c r="V6" t="n">
-        <v>1739.20629371106</v>
+        <v>1501.089381031062</v>
       </c>
       <c r="W6" t="n">
-        <v>1484.968936982859</v>
+        <v>1246.852024302861</v>
       </c>
       <c r="X6" t="n">
-        <v>1277.117436777326</v>
+        <v>1039.000524097328</v>
       </c>
       <c r="Y6" t="n">
-        <v>1069.357138012372</v>
+        <v>831.2402253323742</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>467.2474741338833</v>
+        <v>647.7212998119035</v>
       </c>
       <c r="C7" t="n">
-        <v>298.3112912059764</v>
+        <v>478.7851168839966</v>
       </c>
       <c r="D7" t="n">
-        <v>298.3112912059764</v>
+        <v>328.6684774716608</v>
       </c>
       <c r="E7" t="n">
-        <v>298.3112912059764</v>
+        <v>180.7553838892677</v>
       </c>
       <c r="F7" t="n">
-        <v>206.6469707413191</v>
+        <v>33.86543639135736</v>
       </c>
       <c r="G7" t="n">
-        <v>38.41708022305377</v>
+        <v>33.86543639135736</v>
       </c>
       <c r="H7" t="n">
-        <v>38.41708022305377</v>
+        <v>33.86543639135736</v>
       </c>
       <c r="I7" t="n">
-        <v>38.41708022305377</v>
+        <v>33.86543639135736</v>
       </c>
       <c r="J7" t="n">
-        <v>47.01853036965681</v>
+        <v>36.28512133652205</v>
       </c>
       <c r="K7" t="n">
-        <v>190.9901919351913</v>
+        <v>170.09824371286</v>
       </c>
       <c r="L7" t="n">
-        <v>430.7507856338304</v>
+        <v>396.859404711959</v>
       </c>
       <c r="M7" t="n">
-        <v>693.9338378677328</v>
+        <v>646.3363778191542</v>
       </c>
       <c r="N7" t="n">
-        <v>956.2936017844117</v>
+        <v>895.3159625361659</v>
       </c>
       <c r="O7" t="n">
-        <v>1182.609012405279</v>
+        <v>1109.272612021382</v>
       </c>
       <c r="P7" t="n">
-        <v>1352.740261157876</v>
+        <v>1268.828805580467</v>
       </c>
       <c r="Q7" t="n">
-        <v>1387.095239042631</v>
+        <v>1295.862163397015</v>
       </c>
       <c r="R7" t="n">
-        <v>1387.095239042631</v>
+        <v>1295.862163397015</v>
       </c>
       <c r="S7" t="n">
-        <v>1387.095239042631</v>
+        <v>1295.862163397015</v>
       </c>
       <c r="T7" t="n">
-        <v>1387.095239042631</v>
+        <v>1118.786934679104</v>
       </c>
       <c r="U7" t="n">
-        <v>1387.095239042631</v>
+        <v>1118.786934679104</v>
       </c>
       <c r="V7" t="n">
-        <v>1387.095239042631</v>
+        <v>1118.786934679104</v>
       </c>
       <c r="W7" t="n">
-        <v>1097.678069005671</v>
+        <v>829.3697646421432</v>
       </c>
       <c r="X7" t="n">
-        <v>869.6885181076532</v>
+        <v>829.3697646421432</v>
       </c>
       <c r="Y7" t="n">
-        <v>648.895938964123</v>
+        <v>829.3697646421432</v>
       </c>
     </row>
     <row r="8">
@@ -4780,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2172.199996424343</v>
+        <v>1957.346298904865</v>
       </c>
       <c r="C8" t="n">
-        <v>1803.237479483932</v>
+        <v>1588.383781964454</v>
       </c>
       <c r="D8" t="n">
-        <v>1444.971780877181</v>
+        <v>1230.118083357703</v>
       </c>
       <c r="E8" t="n">
-        <v>1059.183528278937</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F8" t="n">
-        <v>648.1976234893293</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>232.4928732136182</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4837,19 +4837,19 @@
         <v>2562.339328400155</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400155</v>
+        <v>2343.946138968987</v>
       </c>
       <c r="V8" t="n">
-        <v>2562.339328400155</v>
+        <v>2343.946138968987</v>
       </c>
       <c r="W8" t="n">
-        <v>2562.339328400155</v>
+        <v>2343.946138968987</v>
       </c>
       <c r="X8" t="n">
-        <v>2562.339328400155</v>
+        <v>2343.946138968987</v>
       </c>
       <c r="Y8" t="n">
-        <v>2172.199996424343</v>
+        <v>2343.946138968987</v>
       </c>
     </row>
     <row r="9">
@@ -4877,7 +4877,7 @@
         <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
@@ -4886,25 +4886,25 @@
         <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>590.2049751143496</v>
+        <v>614.5430248380223</v>
       </c>
       <c r="L9" t="n">
-        <v>884.9085321458213</v>
+        <v>909.2465818694941</v>
       </c>
       <c r="M9" t="n">
-        <v>1248.170551105041</v>
+        <v>1272.508600828714</v>
       </c>
       <c r="N9" t="n">
-        <v>1635.455679701987</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O9" t="n">
-        <v>1967.526114878148</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P9" t="n">
-        <v>2214.708848710445</v>
+        <v>2239.046898434118</v>
       </c>
       <c r="Q9" t="n">
-        <v>2538.001278676482</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>940.7932119894607</v>
+        <v>716.5983551657496</v>
       </c>
       <c r="C10" t="n">
-        <v>771.8570290615538</v>
+        <v>547.6621722378427</v>
       </c>
       <c r="D10" t="n">
-        <v>621.7403896492181</v>
+        <v>397.5455328255069</v>
       </c>
       <c r="E10" t="n">
-        <v>473.8272960668249</v>
+        <v>249.6324392431138</v>
       </c>
       <c r="F10" t="n">
-        <v>473.8272960668249</v>
+        <v>102.7424917452035</v>
       </c>
       <c r="G10" t="n">
-        <v>305.8408313751036</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H10" t="n">
-        <v>157.1019332386098</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I10" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1542.048905465104</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1345.420157624965</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="T10" t="n">
-        <v>1122.4416768197</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="U10" t="n">
-        <v>1122.4416768197</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="V10" t="n">
-        <v>1122.4416768197</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="W10" t="n">
-        <v>1122.4416768197</v>
+        <v>1347.028950037537</v>
       </c>
       <c r="X10" t="n">
-        <v>1122.4416768197</v>
+        <v>1119.039399139519</v>
       </c>
       <c r="Y10" t="n">
-        <v>1122.4416768197</v>
+        <v>898.2468199959893</v>
       </c>
     </row>
     <row r="11">
@@ -5017,25 +5017,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2345.167438673965</v>
+        <v>1881.708680670284</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.204921733553</v>
+        <v>1512.746163729872</v>
       </c>
       <c r="D11" t="n">
-        <v>1617.939223126803</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.150970528558</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F11" t="n">
-        <v>821.1650657389509</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G11" t="n">
-        <v>406.0926155839475</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H11" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218342</v>
@@ -5077,16 +5077,16 @@
         <v>3325.605821609171</v>
       </c>
       <c r="V11" t="n">
-        <v>3325.605821609171</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W11" t="n">
-        <v>3325.605821609171</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X11" t="n">
-        <v>3121.906610713899</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y11" t="n">
-        <v>2731.767278738087</v>
+        <v>2268.308520734406</v>
       </c>
     </row>
     <row r="12">
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>561.7003711548124</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="C13" t="n">
-        <v>477.7578170212613</v>
+        <v>231.8553933260938</v>
       </c>
       <c r="D13" t="n">
-        <v>477.7578170212613</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E13" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="F13" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G13" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H13" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I13" t="n">
         <v>66.51211643218342</v>
@@ -5223,28 +5223,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R13" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S13" t="n">
-        <v>1837.464090846021</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T13" t="n">
-        <v>1615.697475415547</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U13" t="n">
-        <v>1326.59460854119</v>
+        <v>1224.739181610489</v>
       </c>
       <c r="V13" t="n">
-        <v>1071.910120335303</v>
+        <v>970.0546934046018</v>
       </c>
       <c r="W13" t="n">
-        <v>782.4929502983425</v>
+        <v>680.6375233676413</v>
       </c>
       <c r="X13" t="n">
-        <v>782.4929502983425</v>
+        <v>452.6479724696239</v>
       </c>
       <c r="Y13" t="n">
-        <v>561.7003711548124</v>
+        <v>231.8553933260938</v>
       </c>
     </row>
     <row r="14">
@@ -5254,31 +5254,31 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1311.909787855438</v>
+        <v>1405.526882613611</v>
       </c>
       <c r="C14" t="n">
-        <v>942.9472709150261</v>
+        <v>1036.564365673199</v>
       </c>
       <c r="D14" t="n">
-        <v>867.3728191854311</v>
+        <v>1036.564365673199</v>
       </c>
       <c r="E14" t="n">
-        <v>481.5845665871869</v>
+        <v>650.776113074955</v>
       </c>
       <c r="F14" t="n">
-        <v>481.5845665871869</v>
+        <v>239.7902082853474</v>
       </c>
       <c r="G14" t="n">
-        <v>66.51211643218342</v>
+        <v>239.7902082853474</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I14" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
         <v>589.2106210810553</v>
@@ -5287,7 +5287,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N14" t="n">
         <v>2120.555556060171</v>
@@ -5305,25 +5305,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T14" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U14" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V14" t="n">
-        <v>2424.744041450754</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W14" t="n">
-        <v>2071.975386180639</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="X14" t="n">
-        <v>1698.50962791956</v>
+        <v>2182.266054653544</v>
       </c>
       <c r="Y14" t="n">
-        <v>1698.50962791956</v>
+        <v>1792.126722677733</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D15" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G15" t="n">
         <v>176.0213023927779</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L15" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5390,7 +5390,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V15" t="n">
         <v>1779.608347199865</v>
@@ -5399,10 +5399,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="16">
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1091.613680441807</v>
+        <v>561.0764108006842</v>
       </c>
       <c r="C16" t="n">
-        <v>922.6774975139006</v>
+        <v>561.0764108006842</v>
       </c>
       <c r="D16" t="n">
-        <v>772.5608581015648</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E16" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F16" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G16" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H16" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
         <v>66.51211643218342</v>
@@ -5460,28 +5460,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R16" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S16" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T16" t="n">
-        <v>1424.011591242373</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U16" t="n">
-        <v>1134.908724368016</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="V16" t="n">
-        <v>1134.908724368016</v>
+        <v>1480.924175709432</v>
       </c>
       <c r="W16" t="n">
-        <v>1134.908724368016</v>
+        <v>1191.507005672471</v>
       </c>
       <c r="X16" t="n">
-        <v>1134.908724368016</v>
+        <v>963.5174547744541</v>
       </c>
       <c r="Y16" t="n">
-        <v>1134.908724368016</v>
+        <v>742.724875630924</v>
       </c>
     </row>
     <row r="17">
@@ -5491,40 +5491,40 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1190.154071768027</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C17" t="n">
-        <v>1190.154071768027</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D17" t="n">
-        <v>1190.154071768027</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E17" t="n">
-        <v>1190.154071768027</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F17" t="n">
-        <v>779.1681669784198</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G17" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N17" t="n">
         <v>2120.555556060172</v>
@@ -5536,31 +5536,31 @@
         <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S17" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="T17" t="n">
-        <v>3009.337405520489</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="U17" t="n">
-        <v>2755.806928794325</v>
+        <v>3119.628073993395</v>
       </c>
       <c r="V17" t="n">
-        <v>2424.744041450754</v>
+        <v>2788.565186649824</v>
       </c>
       <c r="W17" t="n">
-        <v>2071.97538618064</v>
+        <v>2452.923229912873</v>
       </c>
       <c r="X17" t="n">
-        <v>1698.50962791956</v>
+        <v>2079.457471651794</v>
       </c>
       <c r="Y17" t="n">
-        <v>1308.370295943748</v>
+        <v>1689.318139675982</v>
       </c>
     </row>
     <row r="18">
@@ -5570,70 +5570,70 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064586</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K18" t="n">
         <v>398.4535849031477</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P18" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q18" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R18" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S18" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T18" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U18" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V18" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W18" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X18" t="n">
         <v>1317.519490266131</v>
@@ -5649,43 +5649,43 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1042.179465010819</v>
+        <v>182.1430866838564</v>
       </c>
       <c r="C19" t="n">
-        <v>873.2432820829119</v>
+        <v>182.1430866838564</v>
       </c>
       <c r="D19" t="n">
-        <v>723.1266426705762</v>
+        <v>182.1430866838564</v>
       </c>
       <c r="E19" t="n">
-        <v>575.2135490881831</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="F19" t="n">
-        <v>428.3236015902727</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="G19" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="H19" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O19" t="n">
         <v>1617.076751502319</v>
@@ -5697,28 +5697,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R19" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S19" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="T19" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672848</v>
       </c>
       <c r="U19" t="n">
-        <v>1927.294548088493</v>
+        <v>1356.675339798491</v>
       </c>
       <c r="V19" t="n">
-        <v>1672.610059882606</v>
+        <v>1101.990851592604</v>
       </c>
       <c r="W19" t="n">
-        <v>1672.610059882606</v>
+        <v>812.5736815556436</v>
       </c>
       <c r="X19" t="n">
-        <v>1444.620508984588</v>
+        <v>584.5841306576262</v>
       </c>
       <c r="Y19" t="n">
-        <v>1223.827929841058</v>
+        <v>363.7915515140961</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2303.170539913434</v>
+        <v>1175.300932605788</v>
       </c>
       <c r="C20" t="n">
-        <v>1934.208022973022</v>
+        <v>1175.300932605788</v>
       </c>
       <c r="D20" t="n">
-        <v>1575.942324366272</v>
+        <v>905.2831725805665</v>
       </c>
       <c r="E20" t="n">
-        <v>1190.154071768027</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F20" t="n">
-        <v>779.1681669784198</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="G20" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="H20" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927146</v>
       </c>
       <c r="I20" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K20" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R20" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U20" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V20" t="n">
-        <v>3063.236138238636</v>
+        <v>2678.274518176916</v>
       </c>
       <c r="W20" t="n">
-        <v>3063.236138238636</v>
+        <v>2325.505862906802</v>
       </c>
       <c r="X20" t="n">
-        <v>2689.770379977556</v>
+        <v>1952.040104645722</v>
       </c>
       <c r="Y20" t="n">
-        <v>2689.770379977556</v>
+        <v>1561.90077266991</v>
       </c>
     </row>
     <row r="21">
@@ -5807,31 +5807,31 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811085</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999815</v>
       </c>
       <c r="D21" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387302</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332748</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601598</v>
       </c>
       <c r="G21" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064542</v>
       </c>
       <c r="I21" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J21" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K21" t="n">
         <v>398.4535849031481</v>
@@ -5849,10 +5849,10 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
         <v>2564.909189125856</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1091.613680441807</v>
+        <v>752.7622949738584</v>
       </c>
       <c r="C22" t="n">
-        <v>922.6774975139006</v>
+        <v>583.8261120459515</v>
       </c>
       <c r="D22" t="n">
-        <v>772.5608581015648</v>
+        <v>433.7094726336157</v>
       </c>
       <c r="E22" t="n">
-        <v>624.6477645191717</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F22" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G22" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H22" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I22" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J22" t="n">
         <v>111.634748879119</v>
@@ -5916,13 +5916,13 @@
         <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O22" t="n">
         <v>1617.076751502319</v>
@@ -5949,13 +5949,13 @@
         <v>1672.610059882606</v>
       </c>
       <c r="W22" t="n">
-        <v>1383.192889845645</v>
+        <v>1383.192889845646</v>
       </c>
       <c r="X22" t="n">
-        <v>1383.192889845645</v>
+        <v>1155.203338947628</v>
       </c>
       <c r="Y22" t="n">
-        <v>1273.262145272047</v>
+        <v>934.4107598040981</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2065.110222835252</v>
+        <v>1285.591601078693</v>
       </c>
       <c r="C23" t="n">
-        <v>1976.204921733553</v>
+        <v>916.6290841382818</v>
       </c>
       <c r="D23" t="n">
-        <v>1617.939223126803</v>
+        <v>916.6290841382818</v>
       </c>
       <c r="E23" t="n">
-        <v>1232.150970528558</v>
+        <v>530.8408315400375</v>
       </c>
       <c r="F23" t="n">
-        <v>821.1650657389509</v>
+        <v>119.8549267504299</v>
       </c>
       <c r="G23" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H23" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I23" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J23" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K23" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L23" t="n">
         <v>1040.244834329464</v>
@@ -6001,40 +6001,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N23" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O23" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P23" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q23" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R23" t="n">
         <v>3325.60582160917</v>
       </c>
       <c r="S23" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T23" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U23" t="n">
-        <v>3215.315153136265</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="V23" t="n">
-        <v>3215.315153136265</v>
+        <v>2788.565186649821</v>
       </c>
       <c r="W23" t="n">
-        <v>3215.315153136265</v>
+        <v>2435.796531379707</v>
       </c>
       <c r="X23" t="n">
-        <v>2841.849394875185</v>
+        <v>2062.330773118627</v>
       </c>
       <c r="Y23" t="n">
-        <v>2451.710062899373</v>
+        <v>1672.191441142815</v>
       </c>
     </row>
     <row r="24">
@@ -6062,34 +6062,34 @@
         <v>176.021302392778</v>
       </c>
       <c r="H24" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I24" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J24" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K24" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L24" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M24" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N24" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O24" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P24" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q24" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R24" t="n">
         <v>2564.909189125856</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>385.564938772426</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C25" t="n">
-        <v>216.6287558445191</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D25" t="n">
-        <v>66.5121164321834</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I25" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J25" t="n">
         <v>111.6347488791189</v>
@@ -6171,28 +6171,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R25" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S25" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T25" t="n">
-        <v>1615.697475415546</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U25" t="n">
-        <v>1560.097191887061</v>
+        <v>1526.361820639214</v>
       </c>
       <c r="V25" t="n">
-        <v>1305.412703681174</v>
+        <v>1271.677332433327</v>
       </c>
       <c r="W25" t="n">
-        <v>1015.995533644213</v>
+        <v>982.2601623963666</v>
       </c>
       <c r="X25" t="n">
-        <v>788.0059827461959</v>
+        <v>754.2706114983492</v>
       </c>
       <c r="Y25" t="n">
-        <v>567.2134036026657</v>
+        <v>533.4780323548191</v>
       </c>
     </row>
     <row r="26">
@@ -6202,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>921.7704558796247</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="C26" t="n">
-        <v>552.807938939213</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D26" t="n">
-        <v>194.5422403324625</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E26" t="n">
-        <v>108.5090151927147</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F26" t="n">
-        <v>108.5090151927147</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G26" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H26" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I26" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J26" t="n">
         <v>255.3912473912087</v>
@@ -6247,31 +6247,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q26" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R26" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S26" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T26" t="n">
-        <v>3009.337405520487</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U26" t="n">
-        <v>2755.806928794323</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V26" t="n">
-        <v>2424.744041450752</v>
+        <v>2994.5429342656</v>
       </c>
       <c r="W26" t="n">
-        <v>2071.975386180638</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X26" t="n">
-        <v>1698.509627919558</v>
+        <v>2268.308520734406</v>
       </c>
       <c r="Y26" t="n">
-        <v>1308.370295943746</v>
+        <v>1878.169188758594</v>
       </c>
     </row>
     <row r="27">
@@ -6299,10 +6299,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H27" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I27" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J27" t="n">
         <v>160.1893859228007</v>
@@ -6323,7 +6323,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P27" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q27" t="n">
         <v>2565.053542533341</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>235.4482993600903</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C28" t="n">
-        <v>66.51211643218339</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D28" t="n">
-        <v>66.51211643218339</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E28" t="n">
-        <v>66.51211643218339</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F28" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G28" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H28" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I28" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J28" t="n">
         <v>111.6347488791189</v>
@@ -6411,25 +6411,25 @@
         <v>1927.294548088492</v>
       </c>
       <c r="S28" t="n">
-        <v>1920.850034779555</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T28" t="n">
-        <v>1699.083419349081</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U28" t="n">
-        <v>1409.980552474725</v>
+        <v>1446.505797040962</v>
       </c>
       <c r="V28" t="n">
-        <v>1155.296064268838</v>
+        <v>1446.505797040962</v>
       </c>
       <c r="W28" t="n">
-        <v>865.8788942318774</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X28" t="n">
-        <v>637.8893433338601</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y28" t="n">
-        <v>417.09676419033</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="29">
@@ -6439,25 +6439,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>921.7704558796256</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C29" t="n">
-        <v>775.0816216130238</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D29" t="n">
-        <v>775.0816216130238</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E29" t="n">
-        <v>775.0816216130238</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F29" t="n">
-        <v>364.0957168234162</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G29" t="n">
-        <v>364.0957168234162</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H29" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I29" t="n">
         <v>66.51211643218342</v>
@@ -6466,7 +6466,7 @@
         <v>255.3912473912092</v>
       </c>
       <c r="K29" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L29" t="n">
         <v>1040.244834329464</v>
@@ -6475,13 +6475,13 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N29" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O29" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P29" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q29" t="n">
         <v>3266.588755052368</v>
@@ -6490,25 +6490,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S29" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T29" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U29" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V29" t="n">
-        <v>2424.744041450753</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="W29" t="n">
-        <v>2071.975386180639</v>
+        <v>3197.788768583745</v>
       </c>
       <c r="X29" t="n">
-        <v>1698.509627919559</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y29" t="n">
-        <v>1308.370295943747</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="30">
@@ -6560,7 +6560,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P30" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q30" t="n">
         <v>2565.053542533341</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1091.613680441807</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C31" t="n">
-        <v>922.6774975139006</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D31" t="n">
-        <v>772.5608581015648</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E31" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F31" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G31" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H31" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I31" t="n">
         <v>66.51211643218342</v>
@@ -6645,28 +6645,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R31" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S31" t="n">
-        <v>1837.46409084602</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T31" t="n">
-        <v>1837.46409084602</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U31" t="n">
-        <v>1837.46409084602</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V31" t="n">
-        <v>1837.46409084602</v>
+        <v>1154.062717966212</v>
       </c>
       <c r="W31" t="n">
-        <v>1722.044275313594</v>
+        <v>864.6455479292516</v>
       </c>
       <c r="X31" t="n">
-        <v>1494.054724415577</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y31" t="n">
-        <v>1273.262145272047</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="32">
@@ -6676,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2249.271807195286</v>
+        <v>2005.586939522201</v>
       </c>
       <c r="C32" t="n">
-        <v>1880.309290254874</v>
+        <v>1636.624422581789</v>
       </c>
       <c r="D32" t="n">
-        <v>1522.043591648124</v>
+        <v>1278.358723975039</v>
       </c>
       <c r="E32" t="n">
-        <v>1136.255339049879</v>
+        <v>892.5704713767946</v>
       </c>
       <c r="F32" t="n">
-        <v>779.1681669784198</v>
+        <v>481.5845665871869</v>
       </c>
       <c r="G32" t="n">
-        <v>364.0957168234162</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I32" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J32" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K32" t="n">
-        <v>589.2106210810555</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L32" t="n">
         <v>1040.244834329464</v>
@@ -6715,37 +6715,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O32" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P32" t="n">
         <v>3018.302393296685</v>
       </c>
       <c r="Q32" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R32" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S32" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T32" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="U32" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="V32" t="n">
-        <v>3009.337405520488</v>
+        <v>3121.960685029207</v>
       </c>
       <c r="W32" t="n">
-        <v>3009.337405520488</v>
+        <v>2769.192029759092</v>
       </c>
       <c r="X32" t="n">
-        <v>2635.871647259408</v>
+        <v>2395.726271498012</v>
       </c>
       <c r="Y32" t="n">
-        <v>2635.871647259408</v>
+        <v>2005.586939522201</v>
       </c>
     </row>
     <row r="33">
@@ -6773,10 +6773,10 @@
         <v>176.021302392778</v>
       </c>
       <c r="H33" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I33" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J33" t="n">
         <v>160.1893859228007</v>
@@ -6785,19 +6785,19 @@
         <v>398.4535849031478</v>
       </c>
       <c r="L33" t="n">
-        <v>765.1517452158134</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M33" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N33" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O33" t="n">
         <v>2096.912393410638</v>
       </c>
       <c r="P33" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q33" t="n">
         <v>2565.053542533341</v>
@@ -6834,28 +6834,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1091.613680441807</v>
+        <v>235.4482993600903</v>
       </c>
       <c r="C34" t="n">
-        <v>922.6774975139006</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="D34" t="n">
-        <v>772.5608581015648</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="E34" t="n">
-        <v>624.6477645191717</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F34" t="n">
-        <v>477.7578170212613</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G34" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H34" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I34" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J34" t="n">
         <v>111.6347488791189</v>
@@ -6882,28 +6882,28 @@
         <v>1927.294548088492</v>
       </c>
       <c r="R34" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S34" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T34" t="n">
-        <v>1562.679315309008</v>
+        <v>1513.842048484845</v>
       </c>
       <c r="U34" t="n">
-        <v>1562.679315309008</v>
+        <v>1224.739181610488</v>
       </c>
       <c r="V34" t="n">
-        <v>1562.679315309008</v>
+        <v>970.0546934046014</v>
       </c>
       <c r="W34" t="n">
-        <v>1273.262145272047</v>
+        <v>680.6375233676408</v>
       </c>
       <c r="X34" t="n">
-        <v>1273.262145272047</v>
+        <v>452.6479724696235</v>
       </c>
       <c r="Y34" t="n">
-        <v>1273.262145272047</v>
+        <v>417.09676419033</v>
       </c>
     </row>
     <row r="35">
@@ -6913,76 +6913,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2047.583838282732</v>
+        <v>1590.514489367197</v>
       </c>
       <c r="C35" t="n">
-        <v>1678.62132134232</v>
+        <v>1221.551972426786</v>
       </c>
       <c r="D35" t="n">
-        <v>1320.35562273557</v>
+        <v>863.2862738200351</v>
       </c>
       <c r="E35" t="n">
-        <v>934.5673701373257</v>
+        <v>477.498021221791</v>
       </c>
       <c r="F35" t="n">
-        <v>523.5814653477182</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H35" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I35" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810559</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O35" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q35" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R35" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S35" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T35" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U35" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="V35" t="n">
-        <v>3009.337405520488</v>
+        <v>3093.488074938325</v>
       </c>
       <c r="W35" t="n">
-        <v>3009.337405520488</v>
+        <v>2740.71941966821</v>
       </c>
       <c r="X35" t="n">
-        <v>2635.871647259408</v>
+        <v>2367.25366140713</v>
       </c>
       <c r="Y35" t="n">
-        <v>2434.183678346854</v>
+        <v>1977.114329431319</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C36" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D36" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E36" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F36" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G36" t="n">
         <v>176.021302392778</v>
@@ -7013,49 +7013,49 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I36" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L36" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P36" t="n">
-        <v>2407.41198488674</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q36" t="n">
-        <v>2565.05354253334</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R36" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S36" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T36" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U36" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V36" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W36" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X36" t="n">
         <v>1317.519490266131</v>
@@ -7071,40 +7071,40 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>213.4020639300938</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C37" t="n">
-        <v>213.4020639300938</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D37" t="n">
-        <v>213.4020639300938</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E37" t="n">
-        <v>213.4020639300938</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F37" t="n">
-        <v>66.51211643218342</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I37" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J37" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7116,31 +7116,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S37" t="n">
-        <v>1837.46409084602</v>
+        <v>1919.61668847693</v>
       </c>
       <c r="T37" t="n">
-        <v>1615.697475415546</v>
+        <v>1697.850073046456</v>
       </c>
       <c r="U37" t="n">
-        <v>1326.59460854119</v>
+        <v>1408.747206172099</v>
       </c>
       <c r="V37" t="n">
-        <v>1071.910120335303</v>
+        <v>1154.062717966212</v>
       </c>
       <c r="W37" t="n">
-        <v>782.4929502983421</v>
+        <v>864.6455479292516</v>
       </c>
       <c r="X37" t="n">
-        <v>615.8431079038636</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y37" t="n">
-        <v>395.0505287603335</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="38">
@@ -7150,76 +7150,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>921.7704558796256</v>
+        <v>1246.723135529484</v>
       </c>
       <c r="C38" t="n">
-        <v>552.807938939214</v>
+        <v>877.7606185890727</v>
       </c>
       <c r="D38" t="n">
-        <v>194.5422403324635</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="E38" t="n">
-        <v>194.5422403324635</v>
+        <v>519.4949199823222</v>
       </c>
       <c r="F38" t="n">
-        <v>194.5422403324635</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="G38" t="n">
-        <v>194.5422403324635</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H38" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810566</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O38" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R38" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S38" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T38" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993394</v>
       </c>
       <c r="U38" t="n">
-        <v>2755.806928794324</v>
+        <v>2866.09759726723</v>
       </c>
       <c r="V38" t="n">
-        <v>2424.744041450753</v>
+        <v>2535.034709923659</v>
       </c>
       <c r="W38" t="n">
-        <v>2071.975386180639</v>
+        <v>2182.266054653545</v>
       </c>
       <c r="X38" t="n">
-        <v>1698.509627919559</v>
+        <v>2023.462307569418</v>
       </c>
       <c r="Y38" t="n">
-        <v>1308.370295943747</v>
+        <v>1633.322975593606</v>
       </c>
     </row>
     <row r="39">
@@ -7250,22 +7250,22 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N39" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O39" t="n">
         <v>2096.912393410638</v>
@@ -7308,40 +7308,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>142.0249360836212</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="C40" t="n">
-        <v>142.0249360836212</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="D40" t="n">
-        <v>142.0249360836212</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E40" t="n">
-        <v>142.0249360836212</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F40" t="n">
-        <v>142.0249360836212</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G40" t="n">
-        <v>142.0249360836212</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H40" t="n">
-        <v>142.0249360836212</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J40" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7353,31 +7353,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R40" t="n">
-        <v>1837.46409084602</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S40" t="n">
-        <v>1645.778206672847</v>
+        <v>1751.913851851648</v>
       </c>
       <c r="T40" t="n">
-        <v>1424.011591242373</v>
+        <v>1530.147236421175</v>
       </c>
       <c r="U40" t="n">
-        <v>1134.908724368016</v>
+        <v>1241.044369546818</v>
       </c>
       <c r="V40" t="n">
-        <v>880.2242361621292</v>
+        <v>986.3598813409312</v>
       </c>
       <c r="W40" t="n">
-        <v>590.8070661251686</v>
+        <v>696.9427113039706</v>
       </c>
       <c r="X40" t="n">
-        <v>362.8175152271513</v>
+        <v>468.9531604059532</v>
       </c>
       <c r="Y40" t="n">
-        <v>142.0249360836212</v>
+        <v>248.1605812624231</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1822.632236038042</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C41" t="n">
-        <v>1453.66971909763</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D41" t="n">
-        <v>1095.40402049088</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E41" t="n">
-        <v>709.6157678926356</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F41" t="n">
-        <v>709.6157678926356</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G41" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H41" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T41" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U41" t="n">
-        <v>3325.60582160917</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V41" t="n">
-        <v>3325.60582160917</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="W41" t="n">
-        <v>2972.837166339055</v>
+        <v>2839.523069976995</v>
       </c>
       <c r="X41" t="n">
-        <v>2599.371408077976</v>
+        <v>2466.057311715915</v>
       </c>
       <c r="Y41" t="n">
-        <v>2209.232076102164</v>
+        <v>2075.917979740103</v>
       </c>
     </row>
     <row r="42">
@@ -7466,70 +7466,70 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C42" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D42" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E42" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F42" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G42" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064544</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J42" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O42" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P42" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q42" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R42" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S42" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T42" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U42" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V42" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W42" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X42" t="n">
         <v>1317.519490266131</v>
@@ -7545,31 +7545,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>880.2242361621296</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="C43" t="n">
-        <v>880.2242361621296</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="D43" t="n">
-        <v>772.5608581015648</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="E43" t="n">
-        <v>624.6477645191717</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="F43" t="n">
-        <v>477.7578170212613</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G43" t="n">
-        <v>310.0549803959802</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H43" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J43" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K43" t="n">
         <v>315.6219318279954</v>
@@ -7602,19 +7602,19 @@
         <v>1424.011591242373</v>
       </c>
       <c r="U43" t="n">
-        <v>1134.908724368016</v>
+        <v>1154.062717966212</v>
       </c>
       <c r="V43" t="n">
-        <v>880.2242361621296</v>
+        <v>1154.062717966212</v>
       </c>
       <c r="W43" t="n">
-        <v>880.2242361621296</v>
+        <v>864.6455479292516</v>
       </c>
       <c r="X43" t="n">
-        <v>880.2242361621296</v>
+        <v>636.6559970312343</v>
       </c>
       <c r="Y43" t="n">
-        <v>880.2242361621296</v>
+        <v>415.8634178877041</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1179.52858457759</v>
+        <v>2196.097994299122</v>
       </c>
       <c r="C44" t="n">
-        <v>810.5660676371781</v>
+        <v>1827.13547735871</v>
       </c>
       <c r="D44" t="n">
-        <v>452.3003690304276</v>
+        <v>1468.86977875196</v>
       </c>
       <c r="E44" t="n">
-        <v>66.5121164321834</v>
+        <v>1083.081526153716</v>
       </c>
       <c r="F44" t="n">
-        <v>66.5121164321834</v>
+        <v>672.0956213641082</v>
       </c>
       <c r="G44" t="n">
-        <v>66.5121164321834</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H44" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I44" t="n">
         <v>66.5121164321834</v>
@@ -7678,22 +7678,22 @@
         <v>3325.60582160917</v>
       </c>
       <c r="T44" t="n">
-        <v>3267.095534218452</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U44" t="n">
-        <v>3013.565057492288</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V44" t="n">
-        <v>2682.502170148718</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="W44" t="n">
-        <v>2329.733514878603</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="X44" t="n">
-        <v>1956.267756617523</v>
+        <v>2972.837166339056</v>
       </c>
       <c r="Y44" t="n">
-        <v>1566.128424641711</v>
+        <v>2582.697834363244</v>
       </c>
     </row>
     <row r="45">
@@ -7748,7 +7748,7 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R45" t="n">
         <v>2564.909189125856</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>752.7622949738575</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="C46" t="n">
-        <v>583.8261120459506</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D46" t="n">
-        <v>583.8261120459506</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E46" t="n">
-        <v>583.8261120459506</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F46" t="n">
-        <v>477.7578170212613</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G46" t="n">
-        <v>310.0549803959803</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H46" t="n">
-        <v>163.8377936138381</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I46" t="n">
         <v>66.5121164321834</v>
@@ -7836,22 +7836,22 @@
         <v>1927.294548088492</v>
       </c>
       <c r="T46" t="n">
-        <v>1927.294548088492</v>
+        <v>1705.527932658018</v>
       </c>
       <c r="U46" t="n">
-        <v>1927.294548088492</v>
+        <v>1416.425065783662</v>
       </c>
       <c r="V46" t="n">
-        <v>1672.610059882605</v>
+        <v>1161.740577577775</v>
       </c>
       <c r="W46" t="n">
-        <v>1383.192889845645</v>
+        <v>872.3234075408143</v>
       </c>
       <c r="X46" t="n">
-        <v>1155.203338947627</v>
+        <v>644.3338566427969</v>
       </c>
       <c r="Y46" t="n">
-        <v>934.4107598040972</v>
+        <v>423.5412774992668</v>
       </c>
     </row>
   </sheetData>
@@ -8002,7 +8002,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>65.71641987298243</v>
+        <v>60.51967546761151</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8057,10 +8057,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>10.88007489328488</v>
+        <v>99.37288961069042</v>
       </c>
       <c r="K3" t="n">
-        <v>32.85297080641686</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8151,7 +8151,7 @@
         <v>171.8177168444618</v>
       </c>
       <c r="O4" t="n">
-        <v>35.33220109214807</v>
+        <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
         <v>135.0065633140411</v>
@@ -8239,7 +8239,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>13.45632692004881</v>
+        <v>25.82445471157939</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8294,13 +8294,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>65.25087362574678</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>66.85079452065662</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8315,10 +8315,10 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>45.52166981132082</v>
+        <v>45.32591189688981</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8534,7 +8534,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>168.7434581780643</v>
+        <v>193.3273467878346</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8555,7 +8555,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>45.52166981132082</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9740,7 +9740,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -10688,7 +10688,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -11399,7 +11399,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>9.094947017729282e-13</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -22546,28 +22546,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.0088297444486</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>128.1565252206606</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>122.0400102410186</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22594,28 +22594,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>5.774433940770336</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>156.7476462617291</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>213.0542682979517</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>37.91759675920093</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>135.9964251904323</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>172.9933951290729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -22634,19 +22634,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1161683026967</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>47.13922690828119</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22676,25 +22676,25 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>148.8857043306949</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>204.5419913745352</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -22704,19 +22704,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>120.1318207242307</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -22758,22 +22758,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>223.5490895554885</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2629038261999</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -22792,19 +22792,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>412.0849521348539</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>306.5206575899633</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>86.4222186971184</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -22840,19 +22840,19 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.088230077414</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>319.2609001033398</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -22883,7 +22883,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>30.11994143860686</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22913,16 +22913,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>139.7039624244439</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.2252026555387</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8281145177656</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>52.96934688221361</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -22947,22 +22947,22 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>54.6733707629205</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>149.3941432803685</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>112.0438689117662</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -22989,19 +22989,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>112.3934296623498</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>198.8622861470998</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>221.7783872434927</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.240299115834</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -23038,10 +23038,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>121.5849267832465</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -23071,22 +23071,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -23190,7 +23190,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -23226,7 +23226,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>8.104329956274441</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -23235,19 +23235,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -23263,7 +23263,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>122.6394762633979</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23317,16 +23317,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>168.0688818921495</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -23418,25 +23418,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>84.14369250641226</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>131.3595915398102</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23500,22 +23500,22 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>279.8643344083839</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>294.6077643873205</v>
+        <v>164.639383225614</v>
       </c>
       <c r="I14" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23545,7 +23545,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23560,10 +23560,10 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -23652,13 +23652,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>136.9698866949904</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>116.8776405219252</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,28 +23700,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23731,16 +23731,16 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>265.6997797295168</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
         <v>0</v>
@@ -23749,10 +23749,10 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,19 +23782,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>16.95543154783223</v>
       </c>
       <c r="X17" t="n">
         <v>0</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>31.95930209741294</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>48.93987327667877</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23971,10 +23971,10 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>87.36545919571336</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -23983,13 +23983,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,25 +24019,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V20" t="n">
-        <v>68.00627193330587</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24135,7 +24135,7 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>94.35543628911063</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S22" t="n">
         <v>189.7690253314419</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>109.7532162242327</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24208,10 +24208,10 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>277.2566436803262</v>
+        <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>0</v>
@@ -24220,10 +24220,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>399.6892732113154</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,19 +24256,19 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T23" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U23" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
         <v>189.7690253314419</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>231.1675575124122</v>
+        <v>108.8373873069966</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>97.8588472364284</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>296.7574771839114</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24493,13 +24493,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -24606,13 +24606,13 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>166.0258082590282</v>
@@ -24651,19 +24651,19 @@
         <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>183.3889571555942</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>152.17284824331</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24682,25 +24682,25 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>220.0509458470718</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24730,19 +24730,19 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>222.7020862222421</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>182.1679443159947</v>
       </c>
       <c r="W31" t="n">
-        <v>172.2573809594894</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24916,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -24928,13 +24928,13 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>53.35974539096634</v>
+        <v>0</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
         <v>41.57692977292598</v>
@@ -24970,22 +24970,22 @@
         <v>0</v>
       </c>
       <c r="T32" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V32" t="n">
-        <v>327.7522584701349</v>
+        <v>235.3313350441475</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,28 +25122,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>137.2810468259687</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>183.3889571555942</v>
       </c>
     </row>
     <row r="35">
@@ -25168,13 +25168,13 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H35" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25204,25 +25204,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V35" t="n">
-        <v>327.7522584701349</v>
+        <v>97.95568926599657</v>
       </c>
       <c r="W35" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>186.5668494326252</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25323,16 +25323,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>182.1679443159943</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25377,7 +25377,7 @@
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>60.72631141850349</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25402,13 +25402,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H38" t="n">
-        <v>209.4348714989692</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -25441,7 +25441,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
@@ -25456,7 +25456,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>212.5153910651833</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -25569,7 +25569,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>21.59472895491476</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,10 +25596,10 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>16.14213605696594</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25633,19 +25633,19 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>110.4338048678522</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25684,13 +25684,13 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U41" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>327.7522584701349</v>
+        <v>97.52550631318223</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25785,28 +25785,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>42.02872873825321</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25842,19 +25842,19 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>18.96245366221365</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -25876,16 +25876,16 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>410.9217256534534</v>
+        <v>147.5787499310944</v>
       </c>
       <c r="H44" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25918,19 +25918,19 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>145.9927856228093</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -26022,28 +26022,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>121.4225463903063</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>40.41343594848885</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>467739.2002896277</v>
+        <v>1003144.116720294</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>651726.5318045696</v>
+        <v>1005489.348627537</v>
       </c>
     </row>
     <row r="4">
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>758414.6474887285</v>
+        <v>1009332.858139528</v>
       </c>
     </row>
     <row r="5">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>830591.9168304562</v>
+        <v>830591.9168304561</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>830591.9168304562</v>
+        <v>830591.9168304561</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>830591.9168304561</v>
+        <v>830591.9168304562</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>830591.916830456</v>
+        <v>830591.9168304561</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>830591.9168304562</v>
+        <v>830591.916830456</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>830591.9168304561</v>
+        <v>830591.9168304562</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>830591.9168304561</v>
+        <v>830591.9168304562</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>830591.9168304562</v>
+        <v>830591.9168304563</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>830591.9168304561</v>
+        <v>830591.9168304562</v>
       </c>
     </row>
   </sheetData>
@@ -26313,37 +26313,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>207327.291991113</v>
+        <v>451572.9734253557</v>
       </c>
       <c r="C2" t="n">
-        <v>289111.3800597233</v>
+        <v>451572.973425356</v>
       </c>
       <c r="D2" t="n">
-        <v>336568.7935437396</v>
+        <v>451572.9734253558</v>
       </c>
       <c r="E2" t="n">
-        <v>375096.8088680127</v>
+        <v>375096.8088680126</v>
       </c>
       <c r="F2" t="n">
         <v>375096.8088680127</v>
       </c>
       <c r="G2" t="n">
-        <v>375096.8088680128</v>
+        <v>375096.8088680127</v>
       </c>
       <c r="H2" t="n">
-        <v>375096.8088680127</v>
+        <v>375096.8088680126</v>
       </c>
       <c r="I2" t="n">
-        <v>375096.8088680127</v>
+        <v>375096.8088680126</v>
       </c>
       <c r="J2" t="n">
-        <v>375096.8088680127</v>
+        <v>375096.8088680126</v>
       </c>
       <c r="K2" t="n">
-        <v>375096.8088680128</v>
+        <v>375096.8088680126</v>
       </c>
       <c r="L2" t="n">
-        <v>375096.8088680127</v>
+        <v>375096.8088680126</v>
       </c>
       <c r="M2" t="n">
         <v>375096.8088680127</v>
@@ -26352,10 +26352,10 @@
         <v>375096.8088680127</v>
       </c>
       <c r="O2" t="n">
-        <v>375096.8088680126</v>
+        <v>375096.8088680127</v>
       </c>
       <c r="P2" t="n">
-        <v>375096.8088680126</v>
+        <v>375096.8088680127</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>621309.9391332068</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>295519.4385734454</v>
+        <v>176672.6241739502</v>
       </c>
       <c r="D3" t="n">
-        <v>164267.9799359137</v>
+        <v>223886.3093819073</v>
       </c>
       <c r="E3" t="n">
-        <v>182072.9798171908</v>
+        <v>182072.9798171906</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>55794.15534657331</v>
+        <v>68999.15441911413</v>
       </c>
       <c r="K3" t="n">
-        <v>68709.26710713438</v>
+        <v>41076.98154640809</v>
       </c>
       <c r="L3" t="n">
-        <v>40588.54010686963</v>
+        <v>54988.29121946805</v>
       </c>
       <c r="M3" t="n">
-        <v>47552.26579341491</v>
+        <v>47552.265793415</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>15573.66036530694</v>
+        <v>253911.4645514929</v>
       </c>
       <c r="C4" t="n">
-        <v>21335.07467636275</v>
+        <v>206729.3257845418</v>
       </c>
       <c r="D4" t="n">
-        <v>24604.5495661873</v>
+        <v>143951.0939828189</v>
       </c>
       <c r="E4" t="n">
         <v>12820.12292715301</v>
@@ -26435,10 +26435,10 @@
         <v>12820.12292715301</v>
       </c>
       <c r="H4" t="n">
+        <v>12820.12292715299</v>
+      </c>
+      <c r="I4" t="n">
         <v>12820.12292715301</v>
-      </c>
-      <c r="I4" t="n">
-        <v>12820.12292715303</v>
       </c>
       <c r="J4" t="n">
         <v>12820.12292715301</v>
@@ -26450,7 +26450,7 @@
         <v>12820.12292715301</v>
       </c>
       <c r="M4" t="n">
-        <v>12820.12292715303</v>
+        <v>12820.12292715301</v>
       </c>
       <c r="N4" t="n">
         <v>12820.12292715301</v>
@@ -26459,7 +26459,7 @@
         <v>12820.12292715301</v>
       </c>
       <c r="P4" t="n">
-        <v>12820.12292715301</v>
+        <v>12820.12292715303</v>
       </c>
     </row>
     <row r="5">
@@ -26469,10 +26469,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59032.15660993007</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>80273.82664044024</v>
+        <v>75746.87167923116</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
@@ -26484,22 +26484,22 @@
         <v>74306.3405613933</v>
       </c>
       <c r="G5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139333</v>
       </c>
       <c r="H5" t="n">
         <v>74306.34056139328</v>
       </c>
       <c r="I5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="J5" t="n">
-        <v>74306.34056139327</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="K5" t="n">
         <v>74306.3405613933</v>
       </c>
       <c r="L5" t="n">
-        <v>74306.3405613933</v>
+        <v>74306.34056139327</v>
       </c>
       <c r="M5" t="n">
         <v>74306.3405613933</v>
@@ -26508,7 +26508,7 @@
         <v>74306.3405613933</v>
       </c>
       <c r="O5" t="n">
-        <v>74306.34056139328</v>
+        <v>74306.3405613933</v>
       </c>
       <c r="P5" t="n">
         <v>74306.34056139328</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-488588.4641173308</v>
+        <v>-545474.2749215965</v>
       </c>
       <c r="C6" t="n">
-        <v>-108016.9598305251</v>
+        <v>-7575.8482123672</v>
       </c>
       <c r="D6" t="n">
-        <v>54758.49160179388</v>
+        <v>-9202.202379215043</v>
       </c>
       <c r="E6" t="n">
-        <v>105897.3655622757</v>
+        <v>102421.1762642147</v>
       </c>
       <c r="F6" t="n">
-        <v>287970.3453794664</v>
+        <v>284494.1560814053</v>
       </c>
       <c r="G6" t="n">
-        <v>287970.3453794665</v>
+        <v>284494.1560814052</v>
       </c>
       <c r="H6" t="n">
-        <v>287970.3453794664</v>
+        <v>284494.1560814054</v>
       </c>
       <c r="I6" t="n">
-        <v>287970.3453794665</v>
+        <v>284494.1560814056</v>
       </c>
       <c r="J6" t="n">
-        <v>232176.1900328931</v>
+        <v>215495.0016622911</v>
       </c>
       <c r="K6" t="n">
-        <v>219261.0782723321</v>
+        <v>243417.1745349971</v>
       </c>
       <c r="L6" t="n">
-        <v>247381.8052725968</v>
+        <v>229505.8648619372</v>
       </c>
       <c r="M6" t="n">
-        <v>240418.0795860515</v>
+        <v>236941.8902879904</v>
       </c>
       <c r="N6" t="n">
-        <v>287970.3453794664</v>
+        <v>284494.1560814054</v>
       </c>
       <c r="O6" t="n">
-        <v>287970.3453794662</v>
+        <v>284494.1560814053</v>
       </c>
       <c r="P6" t="n">
-        <v>287970.3453794662</v>
+        <v>284494.1560814055</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>570.609557958241</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>800.4241133449261</v>
+        <v>751.4467899908063</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26752,10 +26752,10 @@
         <v>1089.776700593298</v>
       </c>
       <c r="G3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="H3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="I3" t="n">
         <v>1089.776700593298</v>
@@ -26789,46 +26789,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.2445435269807</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>480.2135027881721</v>
+        <v>423.3179548919669</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="F4" t="n">
         <v>831.4014554022928</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="I4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="L4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022925</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>570.609557958241</v>
+        <v>614.0550137694784</v>
       </c>
       <c r="C3" t="n">
-        <v>229.8145553866851</v>
+        <v>137.391776221328</v>
       </c>
       <c r="D3" t="n">
-        <v>133.640778772613</v>
+        <v>182.618102126733</v>
       </c>
       <c r="E3" t="n">
-        <v>155.7118084757592</v>
+        <v>155.711808475759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>213.2445435269807</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>266.9689592611915</v>
+        <v>159.6040748904607</v>
       </c>
       <c r="D4" t="n">
-        <v>160.3713293118666</v>
+        <v>217.2668772080718</v>
       </c>
       <c r="E4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>213.2445435269806</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
-        <v>266.9689592611917</v>
+        <v>159.6040748904607</v>
       </c>
       <c r="L4" t="n">
-        <v>160.3713293118666</v>
+        <v>217.2668772080716</v>
       </c>
       <c r="M4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022544</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>213.2445435269807</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>266.9689592611915</v>
+        <v>159.6040748904607</v>
       </c>
       <c r="L4" t="n">
-        <v>160.3713293118666</v>
+        <v>217.2668772080718</v>
       </c>
       <c r="M4" t="n">
-        <v>190.816623302254</v>
+        <v>190.8166233022539</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,25 +27378,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>101.5590117695014</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>250.5446503079636</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>118.2164900707556</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>143.1621657402053</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>314.193632629268</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27457,28 +27457,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>63.39144972487516</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>43.92180400150558</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27508,13 +27508,13 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -27536,10 +27536,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.8836670385466</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27587,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2586305026775</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>75.47798348574804</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>22.80911833508486</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27627,13 +27627,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>341.9759419018677</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>308.5370958323768</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>140.1815018398514</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>209.8718965061022</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1039815783922</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27709,13 +27709,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>135.7271976526644</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>96.6252005425365</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>33.74703566813366</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27745,16 +27745,16 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>141.660745107507</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.6498268080145</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8350452710705</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>42.53997299798814</v>
       </c>
       <c r="W6" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6359113765081</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>150.1793862679149</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>114.6998850700519</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>116.3646073887346</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>200.4014587515235</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>46.85127707466904</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2451165574754</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27867,7 +27867,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>34.83599259160601</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28025,13 +28025,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>115.3258519193758</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.7965952039006</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.293907770686394</v>
+        <v>2.468562869425037</v>
       </c>
       <c r="H2" t="n">
-        <v>23.49248295654204</v>
+        <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>88.4358793293873</v>
+        <v>95.16927002350883</v>
       </c>
       <c r="J2" t="n">
-        <v>194.6925546522945</v>
+        <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>291.7936705854496</v>
+        <v>314.0104541016253</v>
       </c>
       <c r="L2" t="n">
-        <v>361.9958505225935</v>
+        <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>402.7901328395376</v>
+        <v>433.4580399459293</v>
       </c>
       <c r="N2" t="n">
-        <v>409.3076982930003</v>
+        <v>440.4718441986832</v>
       </c>
       <c r="O2" t="n">
-        <v>386.4976528982375</v>
+        <v>415.925072165838</v>
       </c>
       <c r="P2" t="n">
-        <v>329.8668048094171</v>
+        <v>354.9824263269073</v>
       </c>
       <c r="Q2" t="n">
-        <v>247.7162327717105</v>
+        <v>266.5770185656231</v>
       </c>
       <c r="R2" t="n">
-        <v>144.0946840003793</v>
+        <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>52.27242332451626</v>
+        <v>56.25237638702308</v>
       </c>
       <c r="T2" t="n">
-        <v>10.0415812661797</v>
+        <v>10.8061339609081</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1835126216549115</v>
+        <v>0.1974850295540029</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.227348860513952</v>
+        <v>1.32079757678718</v>
       </c>
       <c r="H3" t="n">
-        <v>11.85360610022686</v>
+        <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>42.25740594313389</v>
+        <v>45.47482884990949</v>
       </c>
       <c r="J3" t="n">
-        <v>115.9575517733818</v>
+        <v>124.7864061472485</v>
       </c>
       <c r="K3" t="n">
-        <v>198.1899254278166</v>
+        <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>266.4908128936106</v>
+        <v>286.7810703458305</v>
       </c>
       <c r="M3" t="n">
-        <v>310.9822090872413</v>
+        <v>334.6599825043656</v>
       </c>
       <c r="N3" t="n">
-        <v>319.2129828053371</v>
+        <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>292.0175159486859</v>
+        <v>314.2513427542726</v>
       </c>
       <c r="P3" t="n">
-        <v>234.3698012677915</v>
+        <v>252.2144074480713</v>
       </c>
       <c r="Q3" t="n">
-        <v>156.6700054227986</v>
+        <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>76.20329153261191</v>
+        <v>82.00530919736546</v>
       </c>
       <c r="S3" t="n">
-        <v>22.79746677314292</v>
+        <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>4.947077205317201</v>
+        <v>5.323741109944815</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08074663556012848</v>
+        <v>0.08689457742020924</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.028968055334533</v>
+        <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.148461437428853</v>
+        <v>9.84501317158279</v>
       </c>
       <c r="I4" t="n">
-        <v>30.94387570042396</v>
+        <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>72.74804151215147</v>
+        <v>78.28698101779069</v>
       </c>
       <c r="K4" t="n">
-        <v>119.5473795197757</v>
+        <v>128.6495586225235</v>
       </c>
       <c r="L4" t="n">
-        <v>152.9794870630996</v>
+        <v>164.6271425440336</v>
       </c>
       <c r="M4" t="n">
-        <v>161.2954198012123</v>
+        <v>173.576239384051</v>
       </c>
       <c r="N4" t="n">
-        <v>157.4601752313291</v>
+        <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>145.439957494012</v>
+        <v>156.5135631817681</v>
       </c>
       <c r="P4" t="n">
-        <v>124.4490091651874</v>
+        <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>86.16204325169439</v>
+        <v>92.72230707919122</v>
       </c>
       <c r="R4" t="n">
-        <v>46.26614546985999</v>
+        <v>49.78878849350556</v>
       </c>
       <c r="S4" t="n">
-        <v>17.93210692796635</v>
+        <v>19.29743379337852</v>
       </c>
       <c r="T4" t="n">
-        <v>4.396499872793003</v>
+        <v>4.731243548715652</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05612553029097458</v>
+        <v>0.06039885381339138</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.217785380281108</v>
+        <v>3.02089161805349</v>
       </c>
       <c r="H5" t="n">
-        <v>32.9541445258039</v>
+        <v>30.93770628339032</v>
       </c>
       <c r="I5" t="n">
-        <v>124.0536708732875</v>
+        <v>116.4629241050073</v>
       </c>
       <c r="J5" t="n">
-        <v>273.1055119196339</v>
+        <v>256.3943999677677</v>
       </c>
       <c r="K5" t="n">
-        <v>409.3143670669332</v>
+        <v>384.268742159972</v>
       </c>
       <c r="L5" t="n">
-        <v>507.7906663987113</v>
+        <v>476.7193540159766</v>
       </c>
       <c r="M5" t="n">
-        <v>565.0149571552854</v>
+        <v>530.4421353285353</v>
       </c>
       <c r="N5" t="n">
-        <v>574.1574898670092</v>
+        <v>539.0252436383299</v>
       </c>
       <c r="O5" t="n">
-        <v>542.1606364918389</v>
+        <v>508.9862526113105</v>
       </c>
       <c r="P5" t="n">
-        <v>462.721559916149</v>
+        <v>434.4079907906149</v>
       </c>
       <c r="Q5" t="n">
-        <v>347.4846209848317</v>
+        <v>326.2223097190741</v>
       </c>
       <c r="R5" t="n">
-        <v>202.1292108940833</v>
+        <v>189.7610831025527</v>
       </c>
       <c r="S5" t="n">
-        <v>73.32528435315581</v>
+        <v>68.83856774639399</v>
       </c>
       <c r="T5" t="n">
-        <v>14.08585550218056</v>
+        <v>13.22395305802916</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2574228304224885</v>
+        <v>0.2416713294442792</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.721666960779652</v>
+        <v>1.616319510546263</v>
       </c>
       <c r="H6" t="n">
-        <v>16.62767827910875</v>
+        <v>15.61024369395996</v>
       </c>
       <c r="I6" t="n">
-        <v>59.27669141280822</v>
+        <v>55.64959718328142</v>
       </c>
       <c r="J6" t="n">
-        <v>162.6597719392741</v>
+        <v>152.7067481433204</v>
       </c>
       <c r="K6" t="n">
-        <v>278.0114583115108</v>
+        <v>261.00015534992</v>
       </c>
       <c r="L6" t="n">
-        <v>373.8207144447224</v>
+        <v>350.9469182876875</v>
       </c>
       <c r="M6" t="n">
-        <v>436.2311417729847</v>
+        <v>409.5385005449894</v>
       </c>
       <c r="N6" t="n">
-        <v>447.7768820494413</v>
+        <v>420.3777660345738</v>
       </c>
       <c r="O6" t="n">
-        <v>409.6283667605869</v>
+        <v>384.5635284587856</v>
       </c>
       <c r="P6" t="n">
-        <v>328.7628778001075</v>
+        <v>308.6461353077333</v>
       </c>
       <c r="Q6" t="n">
-        <v>219.7692773093465</v>
+        <v>206.3217676970984</v>
       </c>
       <c r="R6" t="n">
-        <v>106.8943749859507</v>
+        <v>100.3535920670741</v>
       </c>
       <c r="S6" t="n">
-        <v>31.97920867939396</v>
+        <v>30.02242599633078</v>
       </c>
       <c r="T6" t="n">
-        <v>6.939526039282895</v>
+        <v>6.514901886807083</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1132675632091877</v>
+        <v>0.1063368099043594</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.443387745376096</v>
+        <v>1.355067981950634</v>
       </c>
       <c r="H7" t="n">
-        <v>12.83302922707112</v>
+        <v>12.04778623952474</v>
       </c>
       <c r="I7" t="n">
-        <v>43.40660601549207</v>
+        <v>40.75058985720636</v>
       </c>
       <c r="J7" t="n">
-        <v>102.04751359809</v>
+        <v>95.80330632390984</v>
       </c>
       <c r="K7" t="n">
-        <v>167.69541259915</v>
+        <v>157.4342619029918</v>
       </c>
       <c r="L7" t="n">
-        <v>214.5923926170971</v>
+        <v>201.4616525165516</v>
       </c>
       <c r="M7" t="n">
-        <v>226.2575899410911</v>
+        <v>212.4130655706798</v>
       </c>
       <c r="N7" t="n">
-        <v>220.8776901628713</v>
+        <v>207.3623576379549</v>
       </c>
       <c r="O7" t="n">
-        <v>204.0162969555232</v>
+        <v>191.5326998488043</v>
       </c>
       <c r="P7" t="n">
-        <v>174.5711869498507</v>
+        <v>163.8893130170112</v>
       </c>
       <c r="Q7" t="n">
-        <v>120.8640411150838</v>
+        <v>113.4684652886118</v>
       </c>
       <c r="R7" t="n">
-        <v>64.89996171481972</v>
+        <v>60.92878398843487</v>
       </c>
       <c r="S7" t="n">
-        <v>25.1543118898725</v>
+        <v>23.61513928544877</v>
       </c>
       <c r="T7" t="n">
-        <v>6.167202184788773</v>
+        <v>5.789835922879981</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07873024065687806</v>
+        <v>0.07391279901548922</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,46 +31515,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31597,10 +31597,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31609,34 +31609,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31679,7 +31679,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31694,10 +31694,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31706,16 +31706,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H17" t="n">
         <v>44.86703772844668</v>
@@ -32235,40 +32235,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T17" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,46 +32305,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H18" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32387,43 +32387,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L19" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q19" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U19" t="n">
         <v>0.1071911508780295</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H20" t="n">
         <v>44.86703772844668</v>
@@ -32472,40 +32472,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J20" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781666</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T20" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U20" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,46 +32542,46 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H21" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K21" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q21" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R21" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32624,43 +32624,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H22" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K22" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L22" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M22" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P22" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q22" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U22" t="n">
         <v>0.1071911508780295</v>
@@ -32791,7 +32791,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353161</v>
       </c>
       <c r="L24" t="n">
         <v>508.9565619138795</v>
@@ -33043,10 +33043,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33280,10 +33280,10 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002933</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
@@ -33505,7 +33505,7 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
         <v>593.9283018233474</v>
@@ -33520,7 +33520,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I35" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I38" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138799</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O39" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34155,7 +34155,7 @@
         <v>473.099994678169</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563555</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S41" t="n">
         <v>99.83230779806951</v>
@@ -34468,7 +34468,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>13.64665012560826</v>
+        <v>28.47028331217712</v>
       </c>
       <c r="K2" t="n">
-        <v>71.70381954046906</v>
+        <v>93.92060305664472</v>
       </c>
       <c r="L2" t="n">
-        <v>126.2294355526062</v>
+        <v>153.7913200468046</v>
       </c>
       <c r="M2" t="n">
-        <v>172.4438996122649</v>
+        <v>203.1118067186566</v>
       </c>
       <c r="N2" t="n">
-        <v>179.8946346964094</v>
+        <v>211.0587806020923</v>
       </c>
       <c r="O2" t="n">
-        <v>156.3994414765508</v>
+        <v>185.8268607441513</v>
       </c>
       <c r="P2" t="n">
-        <v>98.63380905414755</v>
+        <v>123.7494305716378</v>
       </c>
       <c r="Q2" t="n">
-        <v>25.41054289726102</v>
+        <v>44.27132869117364</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>97.32166909127218</v>
       </c>
       <c r="K3" t="n">
-        <v>93.20145725987447</v>
+        <v>75.4384048176305</v>
       </c>
       <c r="L3" t="n">
-        <v>127.9364331137364</v>
+        <v>148.2266905659563</v>
       </c>
       <c r="M3" t="n">
-        <v>168.848175165223</v>
+        <v>192.5259485823473</v>
       </c>
       <c r="N3" t="n">
-        <v>187.8712707220038</v>
+        <v>212.1757243460657</v>
       </c>
       <c r="O3" t="n">
-        <v>149.4212715042414</v>
+        <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>100.3953938534613</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>16.68823133677705</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34859,25 +34859,25 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>97.27788769389285</v>
+        <v>106.3800667966406</v>
       </c>
       <c r="L4" t="n">
-        <v>180.5695123234157</v>
+        <v>192.2171678043497</v>
       </c>
       <c r="M4" t="n">
-        <v>200.8792967630528</v>
+        <v>213.1601163458916</v>
       </c>
       <c r="N4" t="n">
-        <v>201.5923476105577</v>
+        <v>213.581156752698</v>
       </c>
       <c r="O4" t="n">
-        <v>42.3156201343173</v>
+        <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>121.7275684300809</v>
+        <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>6.56026382749684</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>92.05960739294761</v>
+        <v>75.34849544108141</v>
       </c>
       <c r="K5" t="n">
-        <v>189.2245160219527</v>
+        <v>164.1788911149915</v>
       </c>
       <c r="L5" t="n">
-        <v>272.0242514287241</v>
+        <v>240.9529390459894</v>
       </c>
       <c r="M5" t="n">
-        <v>334.6687239280127</v>
+        <v>300.0959021012626</v>
       </c>
       <c r="N5" t="n">
-        <v>344.7444262704183</v>
+        <v>309.612180041739</v>
       </c>
       <c r="O5" t="n">
-        <v>312.0624250701521</v>
+        <v>278.8880411896238</v>
       </c>
       <c r="P5" t="n">
-        <v>231.4885641608794</v>
+        <v>203.1749950353453</v>
       </c>
       <c r="Q5" t="n">
-        <v>125.1789311103822</v>
+        <v>103.9166198446246</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,31 +35014,31 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>35.82214527260743</v>
+        <v>91.11999510240048</v>
       </c>
       <c r="K6" t="n">
-        <v>404.6352563497304</v>
+        <v>123.158716375561</v>
       </c>
       <c r="L6" t="n">
-        <v>302.1171291855048</v>
+        <v>212.3925385078133</v>
       </c>
       <c r="M6" t="n">
-        <v>294.0971078509664</v>
+        <v>267.4044666229711</v>
       </c>
       <c r="N6" t="n">
-        <v>316.435169966108</v>
+        <v>289.0360539512405</v>
       </c>
       <c r="O6" t="n">
-        <v>267.0321223161424</v>
+        <v>241.9672840143411</v>
       </c>
       <c r="P6" t="n">
-        <v>194.7884703857773</v>
+        <v>174.671727893403</v>
       </c>
       <c r="Q6" t="n">
-        <v>79.78750322332502</v>
+        <v>276.417281346926</v>
       </c>
       <c r="R6" t="n">
-        <v>6.736540833307615</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>8.688333481417217</v>
+        <v>2.444126207237062</v>
       </c>
       <c r="K7" t="n">
-        <v>145.4259207732672</v>
+        <v>135.164770077109</v>
       </c>
       <c r="L7" t="n">
-        <v>242.1824178774132</v>
+        <v>229.0516777768677</v>
       </c>
       <c r="M7" t="n">
-        <v>265.8414669029317</v>
+        <v>251.9969425325204</v>
       </c>
       <c r="N7" t="n">
-        <v>265.0098625420999</v>
+        <v>251.4945300171835</v>
       </c>
       <c r="O7" t="n">
-        <v>228.6014248695629</v>
+        <v>216.1178277628439</v>
       </c>
       <c r="P7" t="n">
-        <v>171.8497462147442</v>
+        <v>161.1678722819047</v>
       </c>
       <c r="Q7" t="n">
-        <v>34.70199786338945</v>
+        <v>27.30642203691737</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,31 +35251,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313262</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>355.3309544215491</v>
+        <v>379.9148430313194</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>335.424681996123</v>
+        <v>335.4246819961231</v>
       </c>
       <c r="P9" t="n">
-        <v>249.6795291235322</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>326.5580100667036</v>
+        <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>24.58388860977091</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N17" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35962,25 +35962,25 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127272</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K19" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M19" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N19" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O19" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P19" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M20" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N20" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q20" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037172</v>
       </c>
       <c r="R20" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,25 +36199,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K21" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P21" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q21" t="n">
         <v>159.2338966127272</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36439,7 +36439,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609571</v>
       </c>
       <c r="L24" t="n">
         <v>370.4021821340053</v>
@@ -36691,10 +36691,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36928,10 +36928,10 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
-        <v>313.6359509859631</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37153,7 +37153,7 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
         <v>451.7942679013291</v>
@@ -37168,7 +37168,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O38" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340057</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.2338966127271</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37803,7 +37803,7 @@
         <v>250.7943048037195</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222342</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38116,7 +38116,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
